--- a/AbiltyEnhance/月度状态跟踪及总结模板.xlsx
+++ b/AbiltyEnhance/月度状态跟踪及总结模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="月度总结" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t xml:space="preserve">2019年12月总体状态：
 </t>
@@ -206,7 +206,7 @@
     <t>结余</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>备注（121486）</t>
   </si>
   <si>
     <t>美团</t>
@@ -221,6 +221,9 @@
     <t>2020.3.9</t>
   </si>
   <si>
+    <t>2020.3.31</t>
+  </si>
+  <si>
     <t>小米</t>
   </si>
   <si>
@@ -233,7 +236,7 @@
     <t>2020.3.17</t>
   </si>
   <si>
-    <t>账户结余（121486）</t>
+    <t>账户信息</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -252,6 +255,9 @@
   </si>
   <si>
     <t>3.17购买200小米</t>
+  </si>
+  <si>
+    <t>3.31入金11000；购买100美团</t>
   </si>
 </sst>
 </file>
@@ -259,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -287,75 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +316,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -393,10 +363,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,15 +410,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,13 +463,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +577,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,43 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,109 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,54 +747,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -827,6 +785,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -837,6 +825,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -845,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,137 +863,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,10 +1034,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,7 +1406,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1430,58 +1439,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1618,7 +1627,7 @@
       <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1959,31 +1968,31 @@
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="24"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2015,25 +2024,25 @@
       <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" t="s">
         <v>51</v>
       </c>
@@ -2055,10 +2064,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2120,15 +2129,15 @@
         <v>33.35</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F6" si="0">B2*C2+E2</f>
+        <f>B2*C2+E2</f>
         <v>11093.35</v>
       </c>
       <c r="G2" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(B2:B3)*G2-SUM(F2:F3)</f>
-        <v>-4425.63</v>
+        <f>SUM(B2:B5)*G2-SUM(F2:F5)</f>
+        <v>7691.91</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2149,7 +2158,7 @@
         <v>32.28</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f>B3*C3+E3</f>
         <v>10132.28</v>
       </c>
       <c r="G3" s="4"/>
@@ -2158,7 +2167,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="3">
         <v>100</v>
       </c>
@@ -2173,65 +2182,65 @@
         <v>31.24</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f>B4*C4+E4</f>
         <v>9631.24</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="3">
-        <v>800</v>
-      </c>
-      <c r="C5" s="3">
-        <v>11.02</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="3">
-        <v>30.18</v>
+        <f>10+0.47+0.25+5.5+15</f>
+        <v>31.22</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>8846.18</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10.16</v>
-      </c>
-      <c r="H5" s="6">
-        <f>SUM(B5:B7)*G5-SUM(F5:F7)</f>
-        <v>-1357.88</v>
-      </c>
+        <f>B5*C5+E5</f>
+        <v>9451.22</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B6" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="C6" s="3">
-        <v>13.1</v>
+        <v>11.02</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="3">
-        <f>3+0.13+0.07+5.5+15</f>
-        <v>23.7</v>
+        <v>30.18</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>2643.7</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+        <f>B6*C6+E6</f>
+        <v>8846.18</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10.44</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUM(B6:B8)*G6-SUM(F6:F8)</f>
+        <v>-1021.88</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
@@ -2241,17 +2250,18 @@
         <v>200</v>
       </c>
       <c r="C7" s="3">
-        <v>10.3</v>
+        <v>13.1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <f>3+0.13+0.07+5.5+15</f>
+        <v>23.7</v>
       </c>
       <c r="F7" s="3">
         <f>B7*C7+E7</f>
-        <v>2060</v>
+        <v>2643.7</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2259,123 +2269,167 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>B8*C8+E8</f>
+        <v>2060</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3">
         <f>20000</f>
         <v>20000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>0.895</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <f>B8-F2-F5</f>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <f>B9-F2-F6</f>
         <v>60.4699999999993</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.9032</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="3">
-        <f>B9-F3+F8</f>
-        <v>-71.8100000000013</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="3">
-        <f>F9*C9</f>
-        <v>-64.8587920000012</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9"/>
       <c r="B10" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="3">
-        <v>0.8968</v>
+        <v>0.9032</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3">
+        <f>B10-F3+F9</f>
+        <v>-71.8100000000013</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3">
+        <f>F10*C10</f>
+        <v>-64.8587920000012</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="14">
-        <f>B10-F6</f>
-        <v>17356.3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.8968</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <f>I10-F4</f>
-        <v>7725.06</v>
+      <c r="I11" s="14">
+        <f>B11-F7</f>
+        <v>17356.3</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
-        <f>I11-F7</f>
-        <v>5665.06</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <f>I11-F4</f>
+        <v>7725.06</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <f>I12-F8</f>
+        <v>5665.06</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:10">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11">
+        <v>11000</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
+        <f>B14+I13-F5</f>
+        <v>7213.84</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/AbiltyEnhance/月度状态跟踪及总结模板.xlsx
+++ b/AbiltyEnhance/月度状态跟踪及总结模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t xml:space="preserve">2019年12月总体状态：
 </t>
@@ -236,6 +236,12 @@
     <t>2020.3.17</t>
   </si>
   <si>
+    <t>2020.4.21</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
     <t>账户信息</t>
   </si>
   <si>
@@ -258,6 +264,12 @@
   </si>
   <si>
     <t>3.31入金11000；购买100美团</t>
+  </si>
+  <si>
+    <t>4.21购入200小米</t>
+  </si>
+  <si>
+    <t>5.21日购入400小米，折合107人民币返还朋朋，当前余额0</t>
   </si>
 </sst>
 </file>
@@ -265,8 +277,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -287,84 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,32 +322,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,6 +348,99 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -463,187 +475,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,17 +758,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,31 +841,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,137 +875,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,7 +1024,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1042,6 +1063,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,6 +1079,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1433,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1439,560 +1466,560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="26"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2024,25 +2051,25 @@
       <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="20"/>
       <c r="F2" t="s">
         <v>51</v>
       </c>
@@ -2064,10 +2091,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2078,6 +2105,7 @@
     <col min="6" max="8" width="10.375"/>
     <col min="9" max="9" width="11.5"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2105,10 +2133,10 @@
       <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2129,15 +2157,15 @@
         <v>33.35</v>
       </c>
       <c r="F2" s="3">
-        <f>B2*C2+E2</f>
+        <f t="shared" ref="F2:F9" si="0">B2*C2+E2</f>
         <v>11093.35</v>
       </c>
       <c r="G2" s="2">
-        <v>120</v>
+        <v>118.5</v>
       </c>
       <c r="H2" s="2">
         <f>SUM(B2:B5)*G2-SUM(F2:F5)</f>
-        <v>7691.91</v>
+        <v>7091.91</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2158,7 +2186,7 @@
         <v>32.28</v>
       </c>
       <c r="F3" s="3">
-        <f>B3*C3+E3</f>
+        <f t="shared" si="0"/>
         <v>10132.28</v>
       </c>
       <c r="G3" s="4"/>
@@ -2182,7 +2210,7 @@
         <v>31.24</v>
       </c>
       <c r="F4" s="3">
-        <f>B4*C4+E4</f>
+        <f t="shared" si="0"/>
         <v>9631.24</v>
       </c>
       <c r="G4" s="4"/>
@@ -2206,7 +2234,7 @@
         <v>31.22</v>
       </c>
       <c r="F5" s="3">
-        <f>B5*C5+E5</f>
+        <f t="shared" si="0"/>
         <v>9451.22</v>
       </c>
       <c r="G5" s="5"/>
@@ -2215,7 +2243,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="3">
@@ -2231,21 +2259,21 @@
         <v>30.18</v>
       </c>
       <c r="F6" s="3">
-        <f>B6*C6+E6</f>
+        <f t="shared" si="0"/>
         <v>8846.18</v>
       </c>
       <c r="G6" s="6">
-        <v>10.44</v>
+        <v>11.86</v>
       </c>
       <c r="H6" s="6">
-        <f>SUM(B6:B8)*G6-SUM(F6:F8)</f>
-        <v>-1021.88</v>
+        <f>SUM(B6:B10)*G6-SUM(F6:F10)</f>
+        <v>467.559999999998</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="3">
         <v>200</v>
       </c>
@@ -2260,16 +2288,16 @@
         <v>23.7</v>
       </c>
       <c r="F7" s="3">
-        <f>B7*C7+E7</f>
+        <f t="shared" si="0"/>
         <v>2643.7</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="3">
         <v>200</v>
       </c>
@@ -2283,153 +2311,237 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>B8*C8+E8</f>
+        <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10.2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="3">
+      <c r="E9" s="3">
+        <f>3+0.1+0.06+5.5+15</f>
+        <v>23.66</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>2063.66</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
+        <v>400</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3">
+        <f>6+0.26+0.14+5.5+15</f>
+        <v>26.9</v>
+      </c>
+      <c r="F10" s="3">
+        <f>B10*C10+E10</f>
+        <v>5266.9</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3">
         <f>20000</f>
         <v>20000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="3">
         <v>0.895</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <f>B9-F2-F6</f>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <f>B11-F2-F6</f>
         <v>60.4699999999993</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3">
         <v>10000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="3">
         <v>0.9032</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="3">
-        <f>B10-F3+F9</f>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3">
+        <f>B12-F3+F11</f>
         <v>-71.8100000000013</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="3">
-        <f>F10*C10</f>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="3">
+        <f>F12*C12</f>
         <v>-64.8587920000012</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3">
+      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3">
         <v>20000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="3">
         <v>0.8968</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="14">
-        <f>B11-F7</f>
-        <v>17356.3</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <f>I11-F4</f>
-        <v>7725.06</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <f>I12-F8</f>
-        <v>5665.06</v>
+      <c r="I13" s="17">
+        <f>B13-F7</f>
+        <v>17356.3</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:10">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11">
+    <row r="14" spans="1:10">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <f>I13-F4</f>
+        <v>7725.06</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <f>I14-F8</f>
+        <v>5665.06</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:10">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3">
         <v>11000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C16" s="3">
         <v>0.91</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
-        <f>B14+I13-F5</f>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <f>B16+I15-F5</f>
         <v>7213.84</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>79</v>
+      <c r="J16" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <f>I16-F9</f>
+        <v>5150.18</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:10">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <f>I17-F10</f>
+        <v>-116.719999999999</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A18"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G6:G10"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H6:H10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
